--- a/classfiers/chain/svm/smote/chain-svm-default-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6038251366120219</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9650655021834061</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7428571428571429</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9158724131384089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5612745098039216</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7189952904238619</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9628061515093981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.495702005730659</v>
+        <v>0.9704641350210971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7521739130434782</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5975820379965457</v>
+        <v>0.9850107066381156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5734194038352003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.48</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8869565217391304</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6229007633587785</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6862540345547751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4203655352480418</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7030567685589519</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5261437908496732</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4609751911672165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5122334374789289</v>
+        <v>0.9807465987643742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8614505411049933</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6416958050972005</v>
+        <v>0.9902004409025167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7198654388409997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/smote/chain-svm-default-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9196749999999999</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9767441860465117</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9704641350210971</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9850107066381156</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.989247311827957</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9968090452261307</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9807465987643742</v>
+        <v>0.9220718979512948</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9969949748743719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9902004409025167</v>
+        <v>0.9503709021296961</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9832968090452262</v>
       </c>
     </row>
   </sheetData>
